--- a/data-raw/metadata/lower_feather_release_metadata.xlsx
+++ b/data-raw/metadata/lower_feather_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-lower-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57A75D1-42D4-8545-A161-AEB96CCEE355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04A6EB3-2254-2942-AC13-56531517A3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16820" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -100,9 +100,6 @@
     <t>markedRun</t>
   </si>
   <si>
-    <t>markedLifeStage</t>
-  </si>
-  <si>
     <t>markedFishOrigin</t>
   </si>
   <si>
@@ -157,25 +154,10 @@
     <t>appliedMarkType</t>
   </si>
   <si>
-    <t>Mark type that was applied to the release group. Levels = "Pigment / dye"</t>
-  </si>
-  <si>
     <t>appliedMarkColor</t>
   </si>
   <si>
-    <t>Color of mark that was applied to the release group. Levels = "Brown"</t>
-  </si>
-  <si>
     <t>appliedMarkPosition</t>
-  </si>
-  <si>
-    <t>Position of the mark that was applied to the mark group. Levels = "Whole body"</t>
-  </si>
-  <si>
-    <t>appliedMarkCode</t>
-  </si>
-  <si>
-    <t>Code for mark/tag applied to release group</t>
   </si>
   <si>
     <t>code</t>
@@ -193,13 +175,7 @@
     <t>includeAnalysis</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table. For Butte Creek data projectDescriptionID = 12.</t>
-  </si>
-  <si>
     <t>Run of fish marked. Level = "Fall"</t>
-  </si>
-  <si>
-    <t>Lifestage of fish marked.</t>
   </si>
   <si>
     <t>Origin or production type of fish marked. Levels = c("Natural", "Hatchery")</t>
@@ -215,6 +191,18 @@
   </si>
   <si>
     <t>Lower Feather River RST</t>
+  </si>
+  <si>
+    <t>Foreign key to the CAMP ProjectDescription table. For the Lower Feather River data projectDescriptionID = 12.</t>
+  </si>
+  <si>
+    <t>Mark type that was applied to the release group. Levels = c("Pigment / dye", "Elastomer")</t>
+  </si>
+  <si>
+    <t>Color of mark that was applied to the release group. Levels = c("Brown", "Red")</t>
+  </si>
+  <si>
+    <t>Position of the mark that was applied to the mark group. Levels = c("Whole body", "Nose")</t>
   </si>
 </sst>
 </file>
@@ -532,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -728,7 +716,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -766,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -804,7 +792,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -839,10 +827,10 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -880,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -913,30 +901,40 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="3">
+        <v>500</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1302</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -951,39 +949,35 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="6" t="s">
+        <v>37</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>53</v>
+      <c r="K11" s="2"/>
+      <c r="L11" s="14">
+        <v>44593.500127314815</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3">
-        <v>500</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1302</v>
+      <c r="M11" s="14">
+        <v>44678.503599537034</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -999,35 +993,39 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="6" t="s">
-        <v>38</v>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3">
+        <v>7</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="14">
-        <v>44593.500127314815</v>
-      </c>
-      <c r="M12" s="14">
-        <v>44678.503599537034</v>
+      <c r="M12" s="3">
+        <v>7</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1043,40 +1041,30 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="3">
-        <v>7</v>
-      </c>
-      <c r="M13" s="3">
-        <v>7</v>
-      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1095,8 +1083,8 @@
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1131,10 +1119,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -1169,15 +1157,15 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1206,21 +1194,11 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1244,21 +1222,11 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1758,7 +1726,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
@@ -1786,7 +1754,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -1870,7 +1838,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -1898,7 +1866,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -2822,7 +2790,7 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
+      <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -2850,7 +2818,7 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
+      <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -28749,78 +28717,22 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="3"/>
-      <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="3"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="3"/>
-      <c r="M1001" s="3"/>
-      <c r="N1001" s="1"/>
-      <c r="O1001" s="1"/>
-      <c r="P1001" s="1"/>
-      <c r="Q1001" s="1"/>
-      <c r="R1001" s="1"/>
-      <c r="S1001" s="1"/>
-      <c r="T1001" s="1"/>
-      <c r="U1001" s="1"/>
-      <c r="V1001" s="1"/>
-      <c r="W1001" s="1"/>
-      <c r="X1001" s="1"/>
-      <c r="Y1001" s="1"/>
-      <c r="Z1001" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C56:C999 C1:C44" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E999" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F1001" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F999" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C46 C58:C1001" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1001" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H999" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28833,7 +28745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z666"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -28847,13 +28759,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -28884,7 +28796,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/lower_feather_release_metadata.xlsx
+++ b/data-raw/metadata/lower_feather_release_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-lower-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04A6EB3-2254-2942-AC13-56531517A3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6115C26F-D802-0E4E-BDBB-42F5EC69BFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>markedFishOrigin</t>
-  </si>
-  <si>
-    <t>sourceOfFishSite</t>
-  </si>
-  <si>
-    <t>Site where fish used for release were from</t>
   </si>
   <si>
     <t>releaseSite</t>
@@ -520,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -602,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
@@ -716,7 +710,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -754,7 +748,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -792,7 +786,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -827,10 +821,10 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -863,30 +857,40 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="3">
+        <v>500</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1302</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -901,39 +905,35 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>31</v>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="6" t="s">
+        <v>35</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>47</v>
+      <c r="K10" s="2"/>
+      <c r="L10" s="14">
+        <v>44593.500127314815</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3">
-        <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1302</v>
+      <c r="M10" s="14">
+        <v>44678.503599537034</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -949,35 +949,39 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="6" t="s">
-        <v>37</v>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3">
+        <v>7</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="14">
-        <v>44593.500127314815</v>
-      </c>
-      <c r="M11" s="14">
-        <v>44678.503599537034</v>
+      <c r="M11" s="3">
+        <v>7</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -993,40 +997,30 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="3">
-        <v>7</v>
-      </c>
-      <c r="M12" s="3">
-        <v>7</v>
-      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1043,10 +1037,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1081,10 +1075,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>57</v>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1119,15 +1113,15 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1156,21 +1150,11 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1698,7 +1682,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -1726,7 +1710,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
@@ -1754,7 +1738,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -1782,7 +1766,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -1810,7 +1794,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -2762,7 +2746,7 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
+      <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -28689,50 +28673,22 @@
       <c r="Y998" s="1"/>
       <c r="Z998" s="1"/>
     </row>
-    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="3"/>
-      <c r="G999" s="3"/>
-      <c r="H999" s="3"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="3"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="3"/>
-      <c r="M999" s="3"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
-      <c r="P999" s="1"/>
-      <c r="Q999" s="1"/>
-      <c r="R999" s="1"/>
-      <c r="S999" s="1"/>
-      <c r="T999" s="1"/>
-      <c r="U999" s="1"/>
-      <c r="V999" s="1"/>
-      <c r="W999" s="1"/>
-      <c r="X999" s="1"/>
-      <c r="Y999" s="1"/>
-      <c r="Z999" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C56:C999 C1:C44" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C55:C998 C1:C43" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E999" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E998" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F999" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F998" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H999" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H998" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28759,13 +28715,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -28796,7 +28752,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/lower_feather_release_metadata.xlsx
+++ b/data-raw/metadata/lower_feather_release_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-lower-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6115C26F-D802-0E4E-BDBB-42F5EC69BFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ACB65B-6BCE-EA48-B616-A53722888E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>commonName</t>
-  </si>
-  <si>
-    <t>Common name of marked species</t>
   </si>
   <si>
     <t>markedRun</t>
@@ -181,22 +178,25 @@
     <t>Subsite (within site) where fish were released. Corresponds to a trap location. Level = "1 RM Upstream"</t>
   </si>
   <si>
-    <t>Whether or not to include data in analysis. Level = "Yes"</t>
-  </si>
-  <si>
     <t>Lower Feather River RST</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table. For the Lower Feather River data projectDescriptionID = 12.</t>
+    <t>Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 12.</t>
   </si>
   <si>
-    <t>Mark type that was applied to the release group. Levels = c("Pigment / dye", "Elastomer")</t>
+    <t>Common name of marked species. Level = "Chinook salmon"</t>
   </si>
   <si>
-    <t>Color of mark that was applied to the release group. Levels = c("Brown", "Red")</t>
+    <t>Mark type that was applied to the release group. Level = "Pigment / dye"</t>
   </si>
   <si>
-    <t>Position of the mark that was applied to the mark group. Levels = c("Whole body", "Nose")</t>
+    <t>Color of mark that was applied to the release group. Levels = c("Brown", "Blue")</t>
+  </si>
+  <si>
+    <t>Position of the mark that was applied to the mark group. Level = "Whole body"</t>
+  </si>
+  <si>
+    <t>Whether or not to include data in analysis. Levels = c("Yes", "No")</t>
   </si>
 </sst>
 </file>
@@ -265,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -299,6 +299,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +522,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -596,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
@@ -672,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -707,10 +712,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -745,10 +750,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -783,10 +788,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -821,10 +826,10 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -857,83 +862,83 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:26" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
+      <c r="F9" s="19" t="s">
+        <v>28</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
+      <c r="I9" s="20"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="19">
+        <v>500</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>45</v>
+      <c r="M9" s="19">
+        <v>1302</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3">
-        <v>500</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1302</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="14">
         <v>44593.500127314815</v>
       </c>
       <c r="M10" s="14">
-        <v>44678.503599537034</v>
+        <v>44968.41679398148</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -949,60 +954,60 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:26" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>29</v>
+      <c r="I11" s="20"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="19">
+        <v>7</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="M11" s="19">
+        <v>7</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3">
-        <v>7</v>
-      </c>
-      <c r="M11" s="3">
-        <v>7</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -1037,10 +1042,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1075,10 +1080,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1113,10 +1118,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -28715,13 +28720,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -28752,7 +28757,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
